--- a/results/fishertest.xlsx
+++ b/results/fishertest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="40">
   <si>
     <t>allele</t>
   </si>
@@ -98,22 +98,19 @@
     <t>B*57</t>
   </si>
   <si>
+    <t>B*27</t>
+  </si>
+  <si>
+    <t>B*42</t>
+  </si>
+  <si>
+    <t>B*45</t>
+  </si>
+  <si>
+    <t>B*55</t>
+  </si>
+  <si>
     <t>B*58</t>
-  </si>
-  <si>
-    <t>B*27</t>
-  </si>
-  <si>
-    <t>B*37</t>
-  </si>
-  <si>
-    <t>B*42</t>
-  </si>
-  <si>
-    <t>B*45</t>
-  </si>
-  <si>
-    <t>B*55</t>
   </si>
   <si>
     <t>ns</t>
@@ -222,31 +219,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.329</v>
+        <v>0.169</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
         <v>7.0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
@@ -260,25 +257,25 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
         <v>3.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="J3" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -286,19 +283,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
         <v>2.0</v>
@@ -307,10 +304,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -324,13 +321,13 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -339,10 +336,10 @@
         <v>1.0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -350,31 +347,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.607</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -382,31 +379,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.238</v>
+        <v>0.491</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -414,31 +411,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.427</v>
+        <v>0.67</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H8" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,13 +449,13 @@
         <v>1.0</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
@@ -467,10 +464,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J9" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -478,19 +475,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467</v>
+        <v>0.46</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
       </c>
       <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
         <v>3.0</v>
@@ -499,10 +496,10 @@
         <v>5.0</v>
       </c>
       <c r="I10" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="11">
@@ -516,13 +513,13 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
@@ -531,10 +528,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -542,19 +539,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0531</v>
+        <v>0.0519</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
       <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
         <v>5.0</v>
@@ -563,10 +560,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -580,13 +577,13 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
@@ -595,10 +592,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -612,25 +609,25 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -644,25 +641,25 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="J15" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -670,31 +667,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0</v>
+        <v>0.481</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
       </c>
       <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -702,31 +699,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0</v>
+        <v>0.105</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
       </c>
       <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -734,31 +731,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23</v>
+        <v>0.481</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
       </c>
       <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J18" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -766,31 +763,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>0.107</v>
+        <v>1.0</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
       </c>
       <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -798,31 +795,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>0.484</v>
+        <v>1.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
       <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -830,31 +827,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0</v>
+        <v>0.481</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J21" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -862,19 +859,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
       </c>
       <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -883,10 +880,10 @@
         <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J22" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -894,31 +891,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>0.484</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
       <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -932,13 +929,13 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -947,24 +944,24 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="J24" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>0.376</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -973,36 +970,36 @@
         <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>0.239</v>
+        <v>0.126</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>6.0</v>
@@ -1011,47 +1008,47 @@
         <v>1.0</v>
       </c>
       <c r="I26" t="n">
-        <v>60.0</v>
+        <v>46.0</v>
       </c>
       <c r="J26" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239</v>
+        <v>1.0</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J27" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1060,45 +1057,45 @@
         <v>1.0</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>2.0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>0.688</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
         <v>4.0</v>
@@ -1107,167 +1104,167 @@
         <v>2.0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.0</v>
+        <v>48.0</v>
       </c>
       <c r="J29" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.472</v>
+        <v>0.376</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
-        <v>60.0</v>
+        <v>48.0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>0.646</v>
+        <v>0.387</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.0</v>
+        <v>46.0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>0.416</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="J32" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0</v>
+        <v>0.728</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.0</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.0</v>
-      </c>
       <c r="I33" t="n">
-        <v>63.0</v>
+        <v>47.0</v>
       </c>
       <c r="J33" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0</v>
+        <v>0.585</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.0</v>
+        <v>51.0</v>
       </c>
       <c r="J34" t="n">
         <v>40.0</v>
@@ -1275,127 +1272,127 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="n">
-        <v>0.563</v>
+        <v>1.0</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="J35" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="n">
-        <v>0.646</v>
+        <v>0.197</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="J36" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
-        <v>0.563</v>
+        <v>0.321</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I37" t="n">
-        <v>65.0</v>
+        <v>51.0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3</v>
+        <v>1.0</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.0</v>
+        <v>51.0</v>
       </c>
       <c r="J38" t="n">
         <v>41.0</v>
@@ -1403,39 +1400,39 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" t="n">
-        <v>0.516</v>
+        <v>1.0</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>64.0</v>
+        <v>51.0</v>
       </c>
       <c r="J39" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
         <v>1.0</v>
@@ -1444,30 +1441,30 @@
         <v>1.0</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I40" t="n">
-        <v>65.0</v>
+        <v>48.0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" t="n">
         <v>1.0</v>
@@ -1476,30 +1473,30 @@
         <v>1.0</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" t="n">
         <v>1.0</v>
@@ -1508,141 +1505,141 @@
         <v>1.0</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
         <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.0</v>
+        <v>51.0</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="n">
-        <v>0.711</v>
+        <v>0.5</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>0.447</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
         <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>64.0</v>
+        <v>52.0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>0.197</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.0</v>
+        <v>52.0</v>
       </c>
       <c r="J45" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4</v>
+        <v>0.447</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -1651,39 +1648,39 @@
         <v>1.0</v>
       </c>
       <c r="I46" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0614</v>
+        <v>0.447</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="J47" t="n">
         <v>41.0</v>
@@ -1691,16 +1688,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4</v>
+        <v>0.0205</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>0.472</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -1709,30 +1706,30 @@
         <v>39</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="I48" t="n">
-        <v>66.0</v>
+        <v>89.0</v>
       </c>
       <c r="J48" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4</v>
+        <v>0.759</v>
       </c>
       <c r="C49" t="n">
         <v>1.0</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -1741,100 +1738,100 @@
         <v>39</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I49" t="n">
-        <v>66.0</v>
+        <v>87.0</v>
       </c>
       <c r="J49" t="n">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" t="n">
-        <v>0.035</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.84</v>
+        <v>1.0</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H50" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="I50" t="n">
-        <v>103.0</v>
+        <v>90.0</v>
       </c>
       <c r="J50" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
         <v>1.0</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H51" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I51" t="n">
-        <v>103.0</v>
+        <v>89.0</v>
       </c>
       <c r="J51" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>0.713</v>
+        <v>0.711</v>
       </c>
       <c r="C52" t="n">
         <v>1.0</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="n">
         <v>6.0</v>
@@ -1843,79 +1840,79 @@
         <v>2.0</v>
       </c>
       <c r="I52" t="n">
-        <v>104.0</v>
+        <v>88.0</v>
       </c>
       <c r="J52" t="n">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>0.713</v>
+        <v>1.0</v>
       </c>
       <c r="C53" t="n">
         <v>1.0</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H53" t="n">
         <v>2.0</v>
       </c>
       <c r="I53" t="n">
-        <v>104.0</v>
+        <v>89.0</v>
       </c>
       <c r="J53" t="n">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>0.748</v>
+        <v>0.622</v>
       </c>
       <c r="C54" t="n">
         <v>1.0</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="H54" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I54" t="n">
-        <v>102.0</v>
+        <v>80.0</v>
       </c>
       <c r="J54" t="n">
-        <v>59.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55" t="n">
         <v>1.0</v>
@@ -1924,94 +1921,94 @@
         <v>1.0</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I55" t="n">
-        <v>105.0</v>
+        <v>92.0</v>
       </c>
       <c r="J55" t="n">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B56" t="n">
-        <v>0.645</v>
+        <v>1.0</v>
       </c>
       <c r="C56" t="n">
         <v>1.0</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="H56" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I56" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="J56" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B57" t="n">
-        <v>0.62</v>
+        <v>0.747</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="H57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I57" t="n">
-        <v>108.0</v>
+        <v>86.0</v>
       </c>
       <c r="J57" t="n">
-        <v>60.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B58" t="n">
         <v>1.0</v>
@@ -2020,62 +2017,62 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I58" t="n">
-        <v>105.0</v>
+        <v>93.0</v>
       </c>
       <c r="J58" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B59" t="n">
-        <v>0.748</v>
+        <v>0.276</v>
       </c>
       <c r="C59" t="n">
         <v>1.0</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="n">
         <v>8.0</v>
       </c>
       <c r="H59" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="I59" t="n">
-        <v>102.0</v>
+        <v>86.0</v>
       </c>
       <c r="J59" t="n">
-        <v>59.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B60" t="n">
         <v>1.0</v>
@@ -2084,94 +2081,94 @@
         <v>1.0</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H60" t="n">
         <v>1.0</v>
       </c>
       <c r="I60" t="n">
-        <v>109.0</v>
+        <v>91.0</v>
       </c>
       <c r="J60" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B61" t="n">
-        <v>0.446</v>
+        <v>1.0</v>
       </c>
       <c r="C61" t="n">
         <v>1.0</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H61" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="J61" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0</v>
+        <v>0.141</v>
       </c>
       <c r="C62" t="n">
         <v>1.0</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="n">
         <v>3.0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I62" t="n">
-        <v>107.0</v>
+        <v>91.0</v>
       </c>
       <c r="J62" t="n">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B63" t="n">
         <v>1.0</v>
@@ -2180,126 +2177,126 @@
         <v>1.0</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H63" t="n">
         <v>1.0</v>
       </c>
       <c r="I63" t="n">
-        <v>107.0</v>
+        <v>92.0</v>
       </c>
       <c r="J63" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B64" t="n">
-        <v>0.499</v>
+        <v>1.0</v>
       </c>
       <c r="C64" t="n">
         <v>1.0</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" t="n">
-        <v>105.0</v>
+        <v>92.0</v>
       </c>
       <c r="J64" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0</v>
+        <v>0.653</v>
       </c>
       <c r="C65" t="n">
         <v>1.0</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H65" t="n">
         <v>1.0</v>
       </c>
       <c r="I65" t="n">
-        <v>107.0</v>
+        <v>90.0</v>
       </c>
       <c r="J65" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0</v>
+        <v>0.533</v>
       </c>
       <c r="C66" t="n">
         <v>1.0</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>107.0</v>
+        <v>92.0</v>
       </c>
       <c r="J66" t="n">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B67" t="n">
         <v>1.0</v>
@@ -2308,30 +2305,30 @@
         <v>1.0</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>106.0</v>
+        <v>93.0</v>
       </c>
       <c r="J67" t="n">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B68" t="n">
         <v>1.0</v>
@@ -2340,318 +2337,318 @@
         <v>1.0</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>108.0</v>
+        <v>93.0</v>
       </c>
       <c r="J68" t="n">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>0.536</v>
+        <v>1.0</v>
       </c>
       <c r="C69" t="n">
         <v>1.0</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>108.0</v>
+        <v>93.0</v>
       </c>
       <c r="J69" t="n">
-        <v>62.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0</v>
+        <v>0.533</v>
       </c>
       <c r="C70" t="n">
         <v>1.0</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>109.0</v>
+        <v>92.0</v>
       </c>
       <c r="J70" t="n">
-        <v>62.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0</v>
+        <v>0.00395</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0</v>
+        <v>0.0909</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I71" t="n">
-        <v>109.0</v>
+        <v>19.0</v>
       </c>
       <c r="J71" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>0.553</v>
       </c>
       <c r="C72" t="n">
         <v>1.0</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I72" t="n">
-        <v>109.0</v>
+        <v>24.0</v>
       </c>
       <c r="J72" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>1.0</v>
+        <v>0.521</v>
       </c>
       <c r="C73" t="n">
         <v>1.0</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I73" t="n">
-        <v>109.0</v>
+        <v>26.0</v>
       </c>
       <c r="J73" t="n">
-        <v>62.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B74" t="n">
-        <v>0.00633</v>
+        <v>1.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.152</v>
+        <v>1.0</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I74" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="J74" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297</v>
+        <v>1.0</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I75" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J75" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B76" t="n">
-        <v>0.511</v>
+        <v>1.0</v>
       </c>
       <c r="C76" t="n">
         <v>1.0</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I76" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J76" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0</v>
+        <v>0.297</v>
       </c>
       <c r="C77" t="n">
         <v>1.0</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H77" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I77" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="J77" t="n">
-        <v>42.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B78" t="n">
         <v>1.0</v>
@@ -2660,94 +2657,94 @@
         <v>1.0</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G78" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H78" t="n">
         <v>2.0</v>
       </c>
       <c r="I78" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="J78" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B79" t="n">
-        <v>1.0</v>
+        <v>0.244</v>
       </c>
       <c r="C79" t="n">
         <v>1.0</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I79" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="J79" t="n">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B80" t="n">
-        <v>0.187</v>
+        <v>0.521</v>
       </c>
       <c r="C80" t="n">
         <v>1.0</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I80" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="J80" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B81" t="n">
         <v>1.0</v>
@@ -2756,54 +2753,54 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H81" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I81" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="J81" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B82" t="n">
-        <v>0.471</v>
+        <v>0.521</v>
       </c>
       <c r="C82" t="n">
         <v>1.0</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I82" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="J82" t="n">
         <v>40.0</v>
@@ -2811,39 +2808,39 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B83" t="n">
-        <v>0.511</v>
+        <v>0.281</v>
       </c>
       <c r="C83" t="n">
         <v>1.0</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="n">
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I83" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J83" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B84" t="n">
         <v>1.0</v>
@@ -2852,13 +2849,13 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G84" t="n">
         <v>0.0</v>
@@ -2867,79 +2864,79 @@
         <v>1.0</v>
       </c>
       <c r="I84" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J84" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B85" t="n">
-        <v>0.511</v>
+        <v>1.0</v>
       </c>
       <c r="C85" t="n">
         <v>1.0</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I85" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J85" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B86" t="n">
-        <v>0.642</v>
+        <v>1.0</v>
       </c>
       <c r="C86" t="n">
         <v>1.0</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H86" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I86" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="J86" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B87" t="n">
         <v>1.0</v>
@@ -2948,30 +2945,30 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I87" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="J87" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B88" t="n">
         <v>1.0</v>
@@ -2980,30 +2977,30 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="n">
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I88" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J88" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B89" t="n">
         <v>1.0</v>
@@ -3012,13 +3009,13 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" t="n">
         <v>0.0</v>
@@ -3027,47 +3024,47 @@
         <v>0.0</v>
       </c>
       <c r="I89" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J89" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B90" t="n">
-        <v>0.562</v>
+        <v>1.0</v>
       </c>
       <c r="C90" t="n">
         <v>1.0</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H90" t="n">
         <v>1.0</v>
       </c>
       <c r="I90" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="J90" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B91" t="n">
         <v>1.0</v>
@@ -3076,22 +3073,22 @@
         <v>1.0</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I91" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J91" t="n">
         <v>40.0</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B92" t="n">
         <v>1.0</v>
@@ -3108,30 +3105,30 @@
         <v>1.0</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H92" t="n">
         <v>1.0</v>
       </c>
       <c r="I92" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="J92" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B93" t="n">
         <v>1.0</v>
@@ -3140,153 +3137,25 @@
         <v>1.0</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93" t="n">
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I93" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="J93" t="n">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="J95" t="n">
         <v>41.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>43.0</v>
       </c>
     </row>
   </sheetData>
